--- a/Team-Data/2014-15/12-18-2014-15.xlsx
+++ b/Team-Data/2014-15/12-18-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,31 +841,31 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -980,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
@@ -1126,13 +1193,13 @@
         <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
@@ -1153,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>19</v>
@@ -1177,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1308,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1320,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
@@ -1338,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>21</v>
@@ -1350,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.455</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.764</v>
@@ -1439,10 +1506,10 @@
         <v>10.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>34.4</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
@@ -1451,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
         <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
@@ -1517,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1529,13 +1596,13 @@
         <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1672,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1681,16 +1748,16 @@
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>11</v>
@@ -1702,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.731</v>
+        <v>0.704</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R8" t="n">
         <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.3</v>
@@ -1827,28 +1894,28 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.5</v>
+        <v>110.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1866,25 +1933,25 @@
         <v>3</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,16 +1963,16 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
@@ -2042,7 +2109,7 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>6</v>
@@ -2051,13 +2118,13 @@
         <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2218,19 +2285,19 @@
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="J11" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L11" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="R11" t="n">
         <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>35.5</v>
+        <v>35.8</v>
       </c>
       <c r="T11" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="V11" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W11" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
         <v>6.7</v>
@@ -2370,19 +2437,19 @@
         <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>107.5</v>
+        <v>107.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>3</v>
@@ -2415,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>25</v>
@@ -2448,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.792</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
@@ -2504,76 +2571,76 @@
         <v>34.8</v>
       </c>
       <c r="J12" t="n">
-        <v>82.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.709</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2582,10 +2649,10 @@
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,10 +2664,10 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2627,19 +2694,19 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
@@ -2761,16 +2828,16 @@
         <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2788,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2800,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>18</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -2818,7 +2885,7 @@
         <v>19</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>8</v>
@@ -2961,13 +3028,13 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
@@ -2991,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.32</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3122,10 +3189,10 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -3143,19 +3210,19 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
         <v>5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
         <v>16</v>
@@ -3164,13 +3231,13 @@
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>6</v>
@@ -3179,13 +3246,13 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3322,7 +3389,7 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3547,10 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>28</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
@@ -3504,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3540,13 +3607,13 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.519</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I18" t="n">
         <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P18" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.783</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="U18" t="n">
         <v>22.2</v>
@@ -3635,31 +3702,31 @@
         <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
@@ -3674,10 +3741,10 @@
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>14</v>
@@ -3695,16 +3762,16 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>12</v>
@@ -3719,13 +3786,13 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
@@ -3853,10 +3920,10 @@
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3880,13 +3947,13 @@
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>14</v>
@@ -3901,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -3957,70 +4024,70 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="J20" t="n">
-        <v>84.7</v>
+        <v>85.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.755</v>
+        <v>0.737</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4029,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
@@ -4047,55 +4114,55 @@
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN20" t="n">
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
       </c>
       <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX20" t="n">
         <v>3</v>
       </c>
-      <c r="AW20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>7</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.179</v>
+        <v>0.185</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L21" t="n">
         <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="O21" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.788</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T21" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V21" t="n">
         <v>15.2</v>
@@ -4184,31 +4251,31 @@
         <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z21" t="n">
         <v>23.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>29</v>
@@ -4229,10 +4296,10 @@
         <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4262,16 +4329,16 @@
         <v>20</v>
       </c>
       <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>27</v>
       </c>
-      <c r="AY21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>28</v>
-      </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -4306,136 +4373,136 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.462</v>
+        <v>0.48</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J22" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="O22" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P22" t="n">
         <v>23.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T22" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U22" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
       </c>
       <c r="AL22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>18</v>
       </c>
-      <c r="AM22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>19</v>
-      </c>
       <c r="AR22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>25</v>
@@ -4447,16 +4514,16 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.37</v>
+        <v>0.357</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.37</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="R23" t="n">
+        <v>9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="U23" t="n">
         <v>19.1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="R23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="S23" t="n">
-        <v>32</v>
-      </c>
-      <c r="T23" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="U23" t="n">
-        <v>19.2</v>
-      </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -4587,13 +4654,13 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,37 +4678,37 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>14</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4790,10 +4857,10 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
         <v>19</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4817,7 +4884,7 @@
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -4933,25 +5000,25 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4960,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -5118,10 +5185,10 @@
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
         <v>28</v>
@@ -5133,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>7</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -5216,91 +5283,91 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.423</v>
+        <v>0.44</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.452</v>
       </c>
       <c r="L27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M27" t="n">
         <v>14.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O27" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="P27" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T27" t="n">
-        <v>45</v>
+        <v>45.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC27" t="n">
         <v>-0.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>18</v>
@@ -5312,10 +5379,10 @@
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,25 +5403,25 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.64</v>
+        <v>0.654</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
@@ -5416,67 +5483,67 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="T28" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>10</v>
@@ -5488,34 +5555,34 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
       </c>
       <c r="AK28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM28" t="n">
         <v>13</v>
       </c>
-      <c r="AL28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>15</v>
-      </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5524,16 +5591,16 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -5664,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="AF29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5688,13 +5755,13 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5706,31 +5773,31 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -5858,13 +5925,13 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>20</v>
@@ -5879,16 +5946,16 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>23</v>
@@ -5897,16 +5964,16 @@
         <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA30" t="n">
         <v>23</v>
@@ -5915,7 +5982,7 @@
         <v>21</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>4.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG31" t="n">
         <v>6</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6046,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
@@ -6061,10 +6128,10 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6082,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-18-2014-15</t>
+          <t>2014-12-18</t>
         </is>
       </c>
     </row>
